--- a/tests/source.xlsx
+++ b/tests/source.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD736659-96B2-4B4B-9294-CD67FF578DC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B532C86E-2AE6-4A25-ADD7-AA6A8D7DD279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chartWorksheet" sheetId="8" r:id="rId1"/>
@@ -15,9 +15,11 @@
     <sheet name="cashWorksheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">earningsWorksheet1!$B$2:$B$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">earningsWorksheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">earningsWorksheet1!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">earningsWorksheet1!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">earningsWorksheet1!$B$2:$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">earningsWorksheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">earningsWorksheet1!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">earningsWorksheet1!$C$2:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3634,7 +3636,7 @@
         <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3669,16 +3671,13 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="waterfall" uniqueId="{01C3A979-7C96-4F8C-B3DC-8C79D3A4717C}">
+        <cx:series layoutId="waterfall" uniqueId="{66A7DFB8-8531-46BE-907C-E8CF04F4366D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Ebit Per Share</cx:v>
             </cx:txData>
           </cx:tx>
-          <cx:dataLabels pos="outEnd">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:subtotals/>
@@ -6355,7 +6354,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
